--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2020/output/LCA_Resources_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2020/output/LCA_Resources_final.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.557759841743336e-06</v>
+        <v>-1.233610604457529e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001013999999999959</v>
+        <v>-0.0008029999999999904</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007802197058246647</v>
+        <v>-0.006178662956382876</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.739383661801766e-08</v>
+        <v>-2.169354122708955e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.953873746951568e-07</v>
+        <v>-3.131124870613609e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.622066073960004e-06</v>
+        <v>-2.868361989536456e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.76877806523257e-13</v>
+        <v>-2.192631939232561e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.735417802714524e-12</v>
+        <v>-3.750039936469301e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.312851837632636e-05</v>
+        <v>-6.583057224476526e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.001442000378852566</v>
+        <v>-0.001141939156034166</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.222289672598052e-09</v>
+        <v>-4.927513419227198e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.029644242194385e-11</v>
+        <v>-8.153888821322627e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.034164272844583e-06</v>
+        <v>-1.610881569126476e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0009822606519618521</v>
+        <v>-0.0007778651908534416</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01847994909082361</v>
+        <v>-0.01463451589736862</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.393737486497205e-10</v>
+        <v>-1.103719133784307e-10</v>
       </c>
     </row>
     <row r="3">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.796756341627676e-07</v>
+        <v>5.51067544216497e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.199999999999064e-05</v>
+        <v>-1.799999999999278e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005401775622781262</v>
+        <v>0.00303849878781413</v>
       </c>
       <c r="E5" t="n">
-        <v>1.013191276053459e-08</v>
+        <v>5.699200927800088e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>8.370132698046159e-07</v>
+        <v>4.708199642650454e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>4.017432892456456e-06</v>
+        <v>2.259806002006511e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>5.692613122475134e-14</v>
+        <v>3.202094881391915e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7708303816883e-12</v>
+        <v>1.5585920896995e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>2.763835222481891e-06</v>
+        <v>1.554657312645895e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01035334204526409</v>
+        <v>0.005823754900460419</v>
       </c>
       <c r="L5" t="n">
-        <v>6.634281203683785e-10</v>
+        <v>3.731783177071724e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>7.535150141133678e-12</v>
+        <v>4.238521954387235e-12</v>
       </c>
       <c r="N5" t="n">
-        <v>1.579493145047966e-07</v>
+        <v>8.884648940893844e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0004694259728927576</v>
+        <v>0.0002640521097521474</v>
       </c>
       <c r="P5" t="n">
-        <v>0.000511322086777398</v>
+        <v>0.0002876186738122552</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.594791349055607e-12</v>
+        <v>4.272070133843316e-12</v>
       </c>
     </row>
     <row r="6">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.844015466759688e-07</v>
+        <v>4.422007733379844e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.199999999999365e-05</v>
+        <v>-1.099999999999683e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003502422268889824</v>
+        <v>0.001751211134444912</v>
       </c>
       <c r="E7" t="n">
-        <v>1.035805863830011e-08</v>
+        <v>5.179029319150054e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>8.173533329374825e-07</v>
+        <v>4.086766664687413e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>3.546734630311559e-06</v>
+        <v>1.773367315155779e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>4.674691617878637e-14</v>
+        <v>2.337345808939319e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.821326446195079e-12</v>
+        <v>1.410663223097539e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.788900853265972e-06</v>
+        <v>1.894450426632986e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009254125779829798</v>
+        <v>0.004627062889914899</v>
       </c>
       <c r="L7" t="n">
-        <v>6.277945720327524e-10</v>
+        <v>3.138972860163762e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>7.432696304129169e-12</v>
+        <v>3.716348152064584e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.708874723483865e-07</v>
+        <v>8.544373617419327e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0004624878297044521</v>
+        <v>0.0002312439148522261</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0006625912240206397</v>
+        <v>0.0003312956120103199</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.230538831809183e-12</v>
+        <v>3.615269415904592e-12</v>
       </c>
     </row>
     <row r="8">
@@ -1077,52 +1077,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.50959591535633</v>
+        <v>13.51201434668031</v>
       </c>
       <c r="C12" t="n">
-        <v>1281.640954</v>
+        <v>1281.870388</v>
       </c>
       <c r="D12" t="n">
-        <v>237631.8108429429</v>
+        <v>237674.3506952461</v>
       </c>
       <c r="E12" t="n">
-        <v>6.484725517832085</v>
+        <v>6.485886386256127</v>
       </c>
       <c r="F12" t="n">
-        <v>5.37281291767539</v>
+        <v>5.373774736159035</v>
       </c>
       <c r="G12" t="n">
-        <v>47.68691729373544</v>
+        <v>47.69545400610269</v>
       </c>
       <c r="H12" t="n">
-        <v>1.686013721949526e-06</v>
+        <v>1.686315545070171e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>8.810630273106289e-05</v>
+        <v>8.812207515265859e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>62.66718129999512</v>
+        <v>62.67839971653333</v>
       </c>
       <c r="K12" t="n">
-        <v>25161.60861903735</v>
+        <v>25166.11294491262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004928405451872659</v>
+        <v>0.004929287714391594</v>
       </c>
       <c r="M12" t="n">
-        <v>8.14183072582466e-05</v>
+        <v>8.143288242288158e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>11.247170941766</v>
+        <v>11.24918436323931</v>
       </c>
       <c r="O12" t="n">
-        <v>365.092082601268</v>
+        <v>365.1574398580083</v>
       </c>
       <c r="P12" t="n">
-        <v>135358.2093753826</v>
+        <v>135382.4406355596</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0001048023599528248</v>
+        <v>0.0001048211212327124</v>
       </c>
     </row>
     <row r="13">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.39506090996023</v>
+        <v>24.05639018977737</v>
       </c>
       <c r="C13" t="n">
-        <v>1590.176971</v>
+        <v>1787.97891</v>
       </c>
       <c r="D13" t="n">
-        <v>98670.50454685751</v>
+        <v>110944.1177845106</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05232899076982808</v>
+        <v>0.05883818819184575</v>
       </c>
       <c r="F13" t="n">
-        <v>2.800839118141389</v>
+        <v>3.149235188829685</v>
       </c>
       <c r="G13" t="n">
-        <v>28.94121799323913</v>
+        <v>32.5412129249255</v>
       </c>
       <c r="H13" t="n">
-        <v>7.660399872502022e-07</v>
+        <v>8.613276172391696e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>2.210340386081694e-05</v>
+        <v>2.485284384259471e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>827.7890662035004</v>
+        <v>930.7576573503607</v>
       </c>
       <c r="K13" t="n">
-        <v>27703.75410534616</v>
+        <v>31149.82103975197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003507413763859392</v>
+        <v>0.003943700577226076</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0001153683527984861</v>
+        <v>0.0001297190095486125</v>
       </c>
       <c r="N13" t="n">
-        <v>11.87576477573124</v>
+        <v>13.35298985356035</v>
       </c>
       <c r="O13" t="n">
-        <v>384.0927626604493</v>
+        <v>431.8700192775706</v>
       </c>
       <c r="P13" t="n">
-        <v>179809.8116491415</v>
+        <v>202176.3343972721</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003051574991701388</v>
+        <v>0.003431160070199196</v>
       </c>
     </row>
     <row r="14">
@@ -1187,52 +1187,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.2590011695583</v>
+        <v>11.25885246952628</v>
       </c>
       <c r="C14" t="n">
-        <v>1549.834871</v>
+        <v>1549.814402</v>
       </c>
       <c r="D14" t="n">
-        <v>96278.26056778537</v>
+        <v>96276.98900024456</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4056099562479013</v>
+        <v>0.4056045992706195</v>
       </c>
       <c r="F14" t="n">
-        <v>3.308719287039965</v>
+        <v>3.308675588077996</v>
       </c>
       <c r="G14" t="n">
-        <v>33.53706550681266</v>
+        <v>33.53662257562902</v>
       </c>
       <c r="H14" t="n">
-        <v>4.227610969571979e-06</v>
+        <v>4.227555134611393e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>7.422445398309902e-05</v>
+        <v>7.422347368488984e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>3172.064713332812</v>
+        <v>3172.022819196971</v>
       </c>
       <c r="K14" t="n">
-        <v>90324.27395457363</v>
+        <v>90323.08102260508</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08286819062372737</v>
+        <v>0.0828670961658431</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001629693475630844</v>
+        <v>0.0001629671951921204</v>
       </c>
       <c r="N14" t="n">
-        <v>8.45142094973467</v>
+        <v>8.451309330013977</v>
       </c>
       <c r="O14" t="n">
-        <v>3560.681498661223</v>
+        <v>3560.634471980535</v>
       </c>
       <c r="P14" t="n">
-        <v>75206.22590349292</v>
+        <v>75205.23263881239</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0001913945602601766</v>
+        <v>0.0001913920324713603</v>
       </c>
     </row>
     <row r="15">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.88448930776067</v>
+        <v>13.88322235824559</v>
       </c>
       <c r="C16" t="n">
-        <v>7116.659664999999</v>
+        <v>7116.010274999999</v>
       </c>
       <c r="D16" t="n">
-        <v>116802.1840826714</v>
+        <v>116791.5259686275</v>
       </c>
       <c r="E16" t="n">
-        <v>0.206276202630715</v>
+        <v>0.2062573800777854</v>
       </c>
       <c r="F16" t="n">
-        <v>5.246514244825861</v>
+        <v>5.246035504230438</v>
       </c>
       <c r="G16" t="n">
-        <v>55.0664666261394</v>
+        <v>55.06144185125263</v>
       </c>
       <c r="H16" t="n">
-        <v>3.255938051733697e-06</v>
+        <v>3.255640949762977e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>3.767994112172389e-05</v>
+        <v>3.767650285459901e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>3287.158872615667</v>
+        <v>3286.85892176783</v>
       </c>
       <c r="K16" t="n">
-        <v>11728.79647560756</v>
+        <v>11727.72623148998</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01059504965821462</v>
+        <v>0.01059408286766661</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001230570469843452</v>
+        <v>0.0001230458181186268</v>
       </c>
       <c r="N16" t="n">
-        <v>41.96824444800628</v>
+        <v>41.96441487633291</v>
       </c>
       <c r="O16" t="n">
-        <v>744.3388128876155</v>
+        <v>744.2708925142304</v>
       </c>
       <c r="P16" t="n">
-        <v>529176.941852251</v>
+        <v>529128.6548425517</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.006566643983976306</v>
+        <v>0.006566044782505744</v>
       </c>
     </row>
     <row r="17">
@@ -1352,52 +1352,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.95949287540389</v>
+        <v>11.95949281202259</v>
       </c>
       <c r="C17" t="n">
-        <v>943.455926</v>
+        <v>943.4559209999998</v>
       </c>
       <c r="D17" t="n">
-        <v>46356.52474204742</v>
+        <v>46356.52449637337</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03315079468583205</v>
+        <v>0.03315079451014395</v>
       </c>
       <c r="F17" t="n">
-        <v>1.392612443416295</v>
+        <v>1.392612436035915</v>
       </c>
       <c r="G17" t="n">
-        <v>14.49238299810624</v>
+        <v>14.49238292130147</v>
       </c>
       <c r="H17" t="n">
-        <v>4.554923513069831e-07</v>
+        <v>4.554923488930263e-07</v>
       </c>
       <c r="I17" t="n">
-        <v>1.154070437567151e-05</v>
+        <v>1.154070431450965e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>367.7400237537877</v>
+        <v>367.7400218048888</v>
       </c>
       <c r="K17" t="n">
-        <v>12422.19899191471</v>
+        <v>12422.19892608122</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001881161472477271</v>
+        <v>0.001881161462507745</v>
       </c>
       <c r="M17" t="n">
-        <v>7.778222493887063e-05</v>
+        <v>7.778222452665089e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.898092252282131</v>
+        <v>5.898092221024219</v>
       </c>
       <c r="O17" t="n">
-        <v>184.2276545698779</v>
+        <v>184.227653593533</v>
       </c>
       <c r="P17" t="n">
-        <v>79981.2396217347</v>
+        <v>79981.23919786092</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001353091405371125</v>
+        <v>0.001353091398200194</v>
       </c>
     </row>
     <row r="18">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.468541842239432e-05</v>
+        <v>1.487181785171823e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06259099999999999</v>
+        <v>0.02083099999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4359793241965957</v>
+        <v>0.1450989008378086</v>
       </c>
       <c r="E20" t="n">
-        <v>1.195376365990688e-06</v>
+        <v>3.978349136449651e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>1.095317179370858e-05</v>
+        <v>3.645340730052937e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001149244810589662</v>
+        <v>3.824818048823831e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>1.281604602812345e-11</v>
+        <v>4.265326561515863e-12</v>
       </c>
       <c r="I20" t="n">
-        <v>2.312993876313972e-10</v>
+        <v>7.69790791607361e-11</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006641134552240278</v>
+        <v>0.002210245464327414</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07378902179028873</v>
+        <v>0.02455782960670869</v>
       </c>
       <c r="L20" t="n">
-        <v>2.577014424759938e-07</v>
+        <v>8.576598469775887e-08</v>
       </c>
       <c r="M20" t="n">
-        <v>3.750843107881147e-10</v>
+        <v>1.248323445547637e-10</v>
       </c>
       <c r="N20" t="n">
-        <v>9.042434865825136e-05</v>
+        <v>3.009425647297588e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005317982818588461</v>
+        <v>0.001769885448291546</v>
       </c>
       <c r="P20" t="n">
-        <v>1.017428698395579</v>
+        <v>0.3386118965390919</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.867728112454219e-09</v>
+        <v>1.952846963789264e-09</v>
       </c>
     </row>
     <row r="21">
@@ -1682,52 +1682,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.67757542780252</v>
+        <v>82.67780000276512</v>
       </c>
       <c r="C23" t="n">
-        <v>6063.084566</v>
+        <v>6063.101035000001</v>
       </c>
       <c r="D23" t="n">
-        <v>375639.6247885181</v>
+        <v>375640.6451287283</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2068071182156708</v>
+        <v>0.2068076799605043</v>
       </c>
       <c r="F23" t="n">
-        <v>10.98724687939475</v>
+        <v>10.98727672376965</v>
       </c>
       <c r="G23" t="n">
-        <v>113.8690508310641</v>
+        <v>113.8693601306257</v>
       </c>
       <c r="H23" t="n">
-        <v>2.950611411871497e-06</v>
+        <v>2.950619426541062e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>8.607401371809787e-05</v>
+        <v>8.607424751871808e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>3135.263848177707</v>
+        <v>3135.272364413915</v>
       </c>
       <c r="K23" t="n">
-        <v>102703.3609114251</v>
+        <v>102703.6398819116</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01648757532220121</v>
+        <v>0.01648762010697619</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0004575005171571016</v>
+        <v>0.0004575017598539393</v>
       </c>
       <c r="N23" t="n">
-        <v>46.15398147597984</v>
+        <v>46.15410684284759</v>
       </c>
       <c r="O23" t="n">
-        <v>1443.141274630088</v>
+        <v>1443.145194597457</v>
       </c>
       <c r="P23" t="n">
-        <v>680805.3684299196</v>
+        <v>680807.217683957</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01155589356583546</v>
+        <v>0.01155592495481067</v>
       </c>
     </row>
     <row r="24">
@@ -1792,52 +1792,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.111706143607363</v>
+        <v>0.5544615656426107</v>
       </c>
       <c r="C25" t="n">
-        <v>277.0377020000001</v>
+        <v>138.172087</v>
       </c>
       <c r="D25" t="n">
-        <v>7871.091603992857</v>
+        <v>3925.693672884531</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0203380767725867</v>
+        <v>0.01014358151597189</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2395390609431499</v>
+        <v>0.1194697029667652</v>
       </c>
       <c r="G25" t="n">
-        <v>2.442786263128582</v>
+        <v>1.218335532076451</v>
       </c>
       <c r="H25" t="n">
-        <v>1.207681013050716e-07</v>
+        <v>6.023288700376659e-08</v>
       </c>
       <c r="I25" t="n">
-        <v>2.985331636349899e-06</v>
+        <v>1.488929122656347e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>50.8503638281232</v>
+        <v>25.36153326467128</v>
       </c>
       <c r="K25" t="n">
-        <v>1191.364475509101</v>
+        <v>594.1910244359188</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002074040391610675</v>
+        <v>0.001034424150078838</v>
       </c>
       <c r="M25" t="n">
-        <v>7.94141290142124e-06</v>
+        <v>3.960766301469313e-06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.510560070007618</v>
+        <v>0.7533892892737705</v>
       </c>
       <c r="O25" t="n">
-        <v>115.4389971545885</v>
+        <v>57.57500528948421</v>
       </c>
       <c r="P25" t="n">
-        <v>17754.2844082026</v>
+        <v>8854.919428522089</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0001139919192792165</v>
+        <v>5.68532776378028e-05</v>
       </c>
     </row>
     <row r="26">
@@ -2177,52 +2177,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.704844216006275</v>
+        <v>1.704746192102573</v>
       </c>
       <c r="C32" t="n">
-        <v>131.658404</v>
+        <v>131.650834</v>
       </c>
       <c r="D32" t="n">
-        <v>107955.3706290455</v>
+        <v>107949.1634889707</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08516689319569459</v>
+        <v>0.08516199633106686</v>
       </c>
       <c r="F32" t="n">
-        <v>2.610720201669514</v>
+        <v>2.610570092361439</v>
       </c>
       <c r="G32" t="n">
-        <v>5.643485486551522</v>
+        <v>5.643161001491434</v>
       </c>
       <c r="H32" t="n">
-        <v>3.376614207739996e-07</v>
+        <v>3.376420061610498e-07</v>
       </c>
       <c r="I32" t="n">
-        <v>1.312011583545764e-05</v>
+        <v>1.311936146449569e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>29587.34160284605</v>
+        <v>29585.64041120823</v>
       </c>
       <c r="K32" t="n">
-        <v>1705.379218744117</v>
+        <v>1705.281164079214</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00354383304843371</v>
+        <v>0.003543629287675858</v>
       </c>
       <c r="M32" t="n">
-        <v>0.000168250771895619</v>
+        <v>0.0001682410979340294</v>
       </c>
       <c r="N32" t="n">
-        <v>1.56273728957413</v>
+        <v>1.562647436432039</v>
       </c>
       <c r="O32" t="n">
-        <v>280.2961531518334</v>
+        <v>280.2800368856864</v>
       </c>
       <c r="P32" t="n">
-        <v>698861.173456886</v>
+        <v>698820.990840947</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.028112451178801e-05</v>
+        <v>2.02799584023116e-05</v>
       </c>
     </row>
     <row r="33">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.003908086303752e-06</v>
+        <v>3.870017583988608e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.008322999999999983</v>
+        <v>-0.006436999999999973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01680937334141957</v>
+        <v>0.0130003527812949</v>
       </c>
       <c r="E34" t="n">
-        <v>6.958308078674651e-08</v>
+        <v>5.381548612571024e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>5.050064687268078e-06</v>
+        <v>3.905715053699933e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>2.130837102736341e-05</v>
+        <v>1.647987315909383e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.593979402719956e-14</v>
+        <v>-5.873176188310494e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.506403467075943e-11</v>
+        <v>-1.938449972073508e-11</v>
       </c>
       <c r="J34" t="n">
-        <v>1.685378240900137e-05</v>
+        <v>1.30346987104099e-05</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0463921953784833</v>
+        <v>0.03587967819912247</v>
       </c>
       <c r="L34" t="n">
-        <v>4.229667783210089e-09</v>
+        <v>3.271220896374298e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>4.523915848724425e-11</v>
+        <v>3.498792060343513e-11</v>
       </c>
       <c r="N34" t="n">
-        <v>1.446117823029771e-06</v>
+        <v>1.118426099584599e-06</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0008241599794456204</v>
+        <v>0.000637404516122966</v>
       </c>
       <c r="P34" t="n">
-        <v>0.002665147748005336</v>
+        <v>0.002061222642545994</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.954764618152444e-11</v>
+        <v>2.285212044580949e-11</v>
       </c>
     </row>
     <row r="35">
@@ -2342,52 +2342,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.491065694962867</v>
+        <v>2.49106233563259</v>
       </c>
       <c r="C35" t="n">
-        <v>-4831.109675999999</v>
+        <v>-4831.103160999999</v>
       </c>
       <c r="D35" t="n">
-        <v>30099.31335212626</v>
+        <v>30099.27276165333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05536859165881276</v>
+        <v>0.05536851699141772</v>
       </c>
       <c r="F35" t="n">
-        <v>3.149939251009163</v>
+        <v>3.149935003153991</v>
       </c>
       <c r="G35" t="n">
-        <v>10.01096345809199</v>
+        <v>10.01094995779261</v>
       </c>
       <c r="H35" t="n">
-        <v>2.824198523653289e-07</v>
+        <v>2.82419471507625e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>1.238597055080751e-05</v>
+        <v>1.238595384768886e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>10.17754550837918</v>
+        <v>10.17753178343534</v>
       </c>
       <c r="K35" t="n">
-        <v>61383.94780893862</v>
+        <v>61383.86502952627</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003033328416798135</v>
+        <v>0.003033324326198674</v>
       </c>
       <c r="M35" t="n">
-        <v>2.266633995728133e-05</v>
+        <v>2.266630939055552e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8170201866725907</v>
+        <v>0.8170190848788264</v>
       </c>
       <c r="O35" t="n">
-        <v>842.4958785311371</v>
+        <v>842.4947423820913</v>
       </c>
       <c r="P35" t="n">
-        <v>1729.203220190827</v>
+        <v>1729.200888271302</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.999695386009688e-05</v>
+        <v>1.999692689317559e-05</v>
       </c>
     </row>
     <row r="36">
